--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H2">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I2">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J2">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.55288982254178</v>
+        <v>1.624213</v>
       </c>
       <c r="N2">
-        <v>1.55288982254178</v>
+        <v>4.872638999999999</v>
       </c>
       <c r="O2">
-        <v>0.01626797578584558</v>
+        <v>0.01443505185764056</v>
       </c>
       <c r="P2">
-        <v>0.01626797578584558</v>
+        <v>0.01457164449518757</v>
       </c>
       <c r="Q2">
-        <v>3.015740988265202</v>
+        <v>3.298427938609333</v>
       </c>
       <c r="R2">
-        <v>3.015740988265202</v>
+        <v>29.68585144748399</v>
       </c>
       <c r="S2">
-        <v>0.0004596793441065004</v>
+        <v>0.000399622630980532</v>
       </c>
       <c r="T2">
-        <v>0.0004596793441065004</v>
+        <v>0.0004714941579689598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H3">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I3">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J3">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.529641985389503</v>
+        <v>0.7406906666666666</v>
       </c>
       <c r="N3">
-        <v>0.529641985389503</v>
+        <v>2.222072</v>
       </c>
       <c r="O3">
-        <v>0.005548496015886406</v>
+        <v>0.006582823917678097</v>
       </c>
       <c r="P3">
-        <v>0.005548496015886406</v>
+        <v>0.006645114326489289</v>
       </c>
       <c r="Q3">
-        <v>1.02857461054827</v>
+        <v>1.504183742403555</v>
       </c>
       <c r="R3">
-        <v>1.02857461054827</v>
+        <v>13.537653681632</v>
       </c>
       <c r="S3">
-        <v>0.0001567821985313843</v>
+        <v>0.0001822401082592354</v>
       </c>
       <c r="T3">
-        <v>0.0001567821985313843</v>
+        <v>0.0002150157166550616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H4">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I4">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J4">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.9898207276321</v>
+        <v>55.835037</v>
       </c>
       <c r="N4">
-        <v>42.9898207276321</v>
+        <v>167.505111</v>
       </c>
       <c r="O4">
-        <v>0.4503586490703178</v>
+        <v>0.4962290380438278</v>
       </c>
       <c r="P4">
-        <v>0.4503586490703178</v>
+        <v>0.5009246382953741</v>
       </c>
       <c r="Q4">
-        <v>83.48703337773664</v>
+        <v>113.388974225724</v>
       </c>
       <c r="R4">
-        <v>83.48703337773664</v>
+        <v>1020.500768031516</v>
       </c>
       <c r="S4">
-        <v>0.01272565014495887</v>
+        <v>0.01373769597142453</v>
       </c>
       <c r="T4">
-        <v>0.01272565014495887</v>
+        <v>0.01620839985610306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H5">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I5">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J5">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.2238533305312</v>
+        <v>51.15453566666667</v>
       </c>
       <c r="N5">
-        <v>47.2238533305312</v>
+        <v>153.463607</v>
       </c>
       <c r="O5">
-        <v>0.494714107429689</v>
+        <v>0.4546314892824138</v>
       </c>
       <c r="P5">
-        <v>0.494714107429689</v>
+        <v>0.4589334699642595</v>
       </c>
       <c r="Q5">
-        <v>91.70960363408234</v>
+        <v>103.8838807653435</v>
       </c>
       <c r="R5">
-        <v>91.70960363408234</v>
+        <v>934.9549268880919</v>
       </c>
       <c r="S5">
-        <v>0.01397898911439103</v>
+        <v>0.01258610177957004</v>
       </c>
       <c r="T5">
-        <v>0.01397898911439103</v>
+        <v>0.01484969318706852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H6">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I6">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J6">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.16065016715058</v>
+        <v>3.164205</v>
       </c>
       <c r="N6">
-        <v>3.16065016715058</v>
+        <v>6.32841</v>
       </c>
       <c r="O6">
-        <v>0.03311077169826133</v>
+        <v>0.02812159689843977</v>
       </c>
       <c r="P6">
-        <v>0.03311077169826133</v>
+        <v>0.01892513291868944</v>
       </c>
       <c r="Q6">
-        <v>6.138041553419234</v>
+        <v>6.42582110566</v>
       </c>
       <c r="R6">
-        <v>6.138041553419234</v>
+        <v>38.55492663395999</v>
       </c>
       <c r="S6">
-        <v>0.00093560120923955</v>
+        <v>0.0007785234615544601</v>
       </c>
       <c r="T6">
-        <v>0.00093560120923955</v>
+        <v>0.0006123598206705536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H7">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J7">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55288982254178</v>
+        <v>1.624213</v>
       </c>
       <c r="N7">
-        <v>1.55288982254178</v>
+        <v>4.872638999999999</v>
       </c>
       <c r="O7">
-        <v>0.01626797578584558</v>
+        <v>0.01443505185764056</v>
       </c>
       <c r="P7">
-        <v>0.01626797578584558</v>
+        <v>0.01457164449518757</v>
       </c>
       <c r="Q7">
-        <v>55.50093935606856</v>
+        <v>64.14638290191634</v>
       </c>
       <c r="R7">
-        <v>55.50093935606856</v>
+        <v>577.317446117247</v>
       </c>
       <c r="S7">
-        <v>0.008459823141233471</v>
+        <v>0.007771686021419114</v>
       </c>
       <c r="T7">
-        <v>0.008459823141233471</v>
+        <v>0.0091694120217297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H8">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J8">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.529641985389503</v>
+        <v>0.7406906666666666</v>
       </c>
       <c r="N8">
-        <v>0.529641985389503</v>
+        <v>2.222072</v>
       </c>
       <c r="O8">
-        <v>0.005548496015886406</v>
+        <v>0.006582823917678097</v>
       </c>
       <c r="P8">
-        <v>0.005548496015886406</v>
+        <v>0.006645114326489289</v>
       </c>
       <c r="Q8">
-        <v>18.92962867347254</v>
+        <v>29.25270707467289</v>
       </c>
       <c r="R8">
-        <v>18.92962867347254</v>
+        <v>263.274363672056</v>
       </c>
       <c r="S8">
-        <v>0.002885380185719137</v>
+        <v>0.003544125863004999</v>
       </c>
       <c r="T8">
-        <v>0.002885380185719137</v>
+        <v>0.004181531549936074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H9">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J9">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.9898207276321</v>
+        <v>55.835037</v>
       </c>
       <c r="N9">
-        <v>42.9898207276321</v>
+        <v>167.505111</v>
       </c>
       <c r="O9">
-        <v>0.4503586490703178</v>
+        <v>0.4962290380438278</v>
       </c>
       <c r="P9">
-        <v>0.4503586490703178</v>
+        <v>0.5009246382953741</v>
       </c>
       <c r="Q9">
-        <v>1536.47438375711</v>
+        <v>2205.139142923167</v>
       </c>
       <c r="R9">
-        <v>1536.47438375711</v>
+        <v>19846.2522863085</v>
       </c>
       <c r="S9">
-        <v>0.234199667580934</v>
+        <v>0.2671646985699037</v>
       </c>
       <c r="T9">
-        <v>0.234199667580934</v>
+        <v>0.3152138663472849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H10">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I10">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J10">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.2238533305312</v>
+        <v>51.15453566666667</v>
       </c>
       <c r="N10">
-        <v>47.2238533305312</v>
+        <v>153.463607</v>
       </c>
       <c r="O10">
-        <v>0.494714107429689</v>
+        <v>0.4546314892824138</v>
       </c>
       <c r="P10">
-        <v>0.494714107429689</v>
+        <v>0.4589334699642595</v>
       </c>
       <c r="Q10">
-        <v>1687.800500596798</v>
+        <v>2020.288245472568</v>
       </c>
       <c r="R10">
-        <v>1687.800500596798</v>
+        <v>18182.59420925311</v>
       </c>
       <c r="S10">
-        <v>0.2572658030367732</v>
+        <v>0.2447689987537465</v>
       </c>
       <c r="T10">
-        <v>0.2572658030367732</v>
+        <v>0.2887903337234304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H11">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I11">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J11">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.16065016715058</v>
+        <v>3.164205</v>
       </c>
       <c r="N11">
-        <v>3.16065016715058</v>
+        <v>6.32841</v>
       </c>
       <c r="O11">
-        <v>0.03311077169826133</v>
+        <v>0.02812159689843977</v>
       </c>
       <c r="P11">
-        <v>0.03311077169826133</v>
+        <v>0.01892513291868944</v>
       </c>
       <c r="Q11">
-        <v>112.9629743890299</v>
+        <v>124.966556424655</v>
       </c>
       <c r="R11">
-        <v>112.9629743890299</v>
+        <v>749.79933854793</v>
       </c>
       <c r="S11">
-        <v>0.01721856955803735</v>
+        <v>0.01514038353799931</v>
       </c>
       <c r="T11">
-        <v>0.01721856955803735</v>
+        <v>0.0119089057761994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>31.0452761067518</v>
+        <v>0.05030299999999999</v>
       </c>
       <c r="H12">
-        <v>31.0452761067518</v>
+        <v>0.150909</v>
       </c>
       <c r="I12">
-        <v>0.4517140544860756</v>
+        <v>0.0006857433341026847</v>
       </c>
       <c r="J12">
-        <v>0.4517140544860756</v>
+        <v>0.0008014890938578097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.55288982254178</v>
+        <v>1.624213</v>
       </c>
       <c r="N12">
-        <v>1.55288982254178</v>
+        <v>4.872638999999999</v>
       </c>
       <c r="O12">
-        <v>0.01626797578584558</v>
+        <v>0.01443505185764056</v>
       </c>
       <c r="P12">
-        <v>0.01626797578584558</v>
+        <v>0.01457164449518757</v>
       </c>
       <c r="Q12">
-        <v>48.20989330417436</v>
+        <v>0.08170278653899998</v>
       </c>
       <c r="R12">
-        <v>48.20989330417436</v>
+        <v>0.7353250788509998</v>
       </c>
       <c r="S12">
-        <v>0.007348473300505609</v>
+        <v>9.898740588803593E-06</v>
       </c>
       <c r="T12">
-        <v>0.007348473300505609</v>
+        <v>1.167901414246603E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>31.0452761067518</v>
+        <v>0.05030299999999999</v>
       </c>
       <c r="H13">
-        <v>31.0452761067518</v>
+        <v>0.150909</v>
       </c>
       <c r="I13">
-        <v>0.4517140544860756</v>
+        <v>0.0006857433341026847</v>
       </c>
       <c r="J13">
-        <v>0.4517140544860756</v>
+        <v>0.0008014890938578097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.529641985389503</v>
+        <v>0.7406906666666666</v>
       </c>
       <c r="N13">
-        <v>0.529641985389503</v>
+        <v>2.222072</v>
       </c>
       <c r="O13">
-        <v>0.005548496015886406</v>
+        <v>0.006582823917678097</v>
       </c>
       <c r="P13">
-        <v>0.005548496015886406</v>
+        <v>0.006645114326489289</v>
       </c>
       <c r="Q13">
-        <v>16.44288167414532</v>
+        <v>0.03725896260533332</v>
       </c>
       <c r="R13">
-        <v>16.44288167414532</v>
+        <v>0.3353306634479999</v>
       </c>
       <c r="S13">
-        <v>0.002506333631635885</v>
+        <v>4.514127621119475E-06</v>
       </c>
       <c r="T13">
-        <v>0.002506333631635885</v>
+        <v>5.32598666011945E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>31.0452761067518</v>
+        <v>0.05030299999999999</v>
       </c>
       <c r="H14">
-        <v>31.0452761067518</v>
+        <v>0.150909</v>
       </c>
       <c r="I14">
-        <v>0.4517140544860756</v>
+        <v>0.0006857433341026847</v>
       </c>
       <c r="J14">
-        <v>0.4517140544860756</v>
+        <v>0.0008014890938578097</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.9898207276321</v>
+        <v>55.835037</v>
       </c>
       <c r="N14">
-        <v>42.9898207276321</v>
+        <v>167.505111</v>
       </c>
       <c r="O14">
-        <v>0.4503586490703178</v>
+        <v>0.4962290380438278</v>
       </c>
       <c r="P14">
-        <v>0.4503586490703178</v>
+        <v>0.5009246382953741</v>
       </c>
       <c r="Q14">
-        <v>1334.6308542691</v>
+        <v>2.808669866210999</v>
       </c>
       <c r="R14">
-        <v>1334.6308542691</v>
+        <v>25.278028795899</v>
       </c>
       <c r="S14">
-        <v>0.2034333313444249</v>
+        <v>0.0003402857550267424</v>
       </c>
       <c r="T14">
-        <v>0.2034333313444249</v>
+        <v>0.0004014856344384105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>31.0452761067518</v>
+        <v>0.05030299999999999</v>
       </c>
       <c r="H15">
-        <v>31.0452761067518</v>
+        <v>0.150909</v>
       </c>
       <c r="I15">
-        <v>0.4517140544860756</v>
+        <v>0.0006857433341026847</v>
       </c>
       <c r="J15">
-        <v>0.4517140544860756</v>
+        <v>0.0008014890938578097</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.2238533305312</v>
+        <v>51.15453566666667</v>
       </c>
       <c r="N15">
-        <v>47.2238533305312</v>
+        <v>153.463607</v>
       </c>
       <c r="O15">
-        <v>0.494714107429689</v>
+        <v>0.4546314892824138</v>
       </c>
       <c r="P15">
-        <v>0.494714107429689</v>
+        <v>0.4589334699642595</v>
       </c>
       <c r="Q15">
-        <v>1466.077565471092</v>
+        <v>2.573226607640333</v>
       </c>
       <c r="R15">
-        <v>1466.077565471092</v>
+        <v>23.159039468763</v>
       </c>
       <c r="S15">
-        <v>0.2234693152785248</v>
+        <v>0.0003117605132485914</v>
       </c>
       <c r="T15">
-        <v>0.2234693152785248</v>
+        <v>0.0003678301709826747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J16">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.164205</v>
+      </c>
+      <c r="N16">
+        <v>6.32841</v>
+      </c>
+      <c r="O16">
+        <v>0.02812159689843977</v>
+      </c>
+      <c r="P16">
+        <v>0.01892513291868944</v>
+      </c>
+      <c r="Q16">
+        <v>0.159169004115</v>
+      </c>
+      <c r="R16">
+        <v>0.9550140246899999</v>
+      </c>
+      <c r="S16">
+        <v>1.928419761742781E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.516828763413901E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.7805215</v>
+      </c>
+      <c r="H17">
+        <v>63.561043</v>
+      </c>
+      <c r="I17">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J17">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.624213</v>
+      </c>
+      <c r="N17">
+        <v>4.872638999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01443505185764056</v>
+      </c>
+      <c r="P17">
+        <v>0.01457164449518757</v>
+      </c>
+      <c r="Q17">
+        <v>51.6183361670795</v>
+      </c>
+      <c r="R17">
+        <v>309.7100170024769</v>
+      </c>
+      <c r="S17">
+        <v>0.006253844464652113</v>
+      </c>
+      <c r="T17">
+        <v>0.004919059301346449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>31.7805215</v>
+      </c>
+      <c r="H18">
+        <v>63.561043</v>
+      </c>
+      <c r="I18">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J18">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7406906666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.222072</v>
+      </c>
+      <c r="O18">
+        <v>0.006582823917678097</v>
+      </c>
+      <c r="P18">
+        <v>0.006645114326489289</v>
+      </c>
+      <c r="Q18">
+        <v>23.53953565684933</v>
+      </c>
+      <c r="R18">
+        <v>141.237213941096</v>
+      </c>
+      <c r="S18">
+        <v>0.002851943818792742</v>
+      </c>
+      <c r="T18">
+        <v>0.002243241073238036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>31.0452761067518</v>
-      </c>
-      <c r="H16">
-        <v>31.0452761067518</v>
-      </c>
-      <c r="I16">
-        <v>0.4517140544860756</v>
-      </c>
-      <c r="J16">
-        <v>0.4517140544860756</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.16065016715058</v>
-      </c>
-      <c r="N16">
-        <v>3.16065016715058</v>
-      </c>
-      <c r="O16">
-        <v>0.03311077169826133</v>
-      </c>
-      <c r="P16">
-        <v>0.03311077169826133</v>
-      </c>
-      <c r="Q16">
-        <v>98.12325711604099</v>
-      </c>
-      <c r="R16">
-        <v>98.12325711604099</v>
-      </c>
-      <c r="S16">
-        <v>0.01495660093098443</v>
-      </c>
-      <c r="T16">
-        <v>0.01495660093098443</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.7805215</v>
+      </c>
+      <c r="H19">
+        <v>63.561043</v>
+      </c>
+      <c r="I19">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J19">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>55.835037</v>
+      </c>
+      <c r="N19">
+        <v>167.505111</v>
+      </c>
+      <c r="O19">
+        <v>0.4962290380438278</v>
+      </c>
+      <c r="P19">
+        <v>0.5009246382953741</v>
+      </c>
+      <c r="Q19">
+        <v>1774.466593831796</v>
+      </c>
+      <c r="R19">
+        <v>10646.79956299077</v>
+      </c>
+      <c r="S19">
+        <v>0.2149863577474727</v>
+      </c>
+      <c r="T19">
+        <v>0.1691008864575479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.7805215</v>
+      </c>
+      <c r="H20">
+        <v>63.561043</v>
+      </c>
+      <c r="I20">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J20">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>51.15453566666667</v>
+      </c>
+      <c r="N20">
+        <v>153.463607</v>
+      </c>
+      <c r="O20">
+        <v>0.4546314892824138</v>
+      </c>
+      <c r="P20">
+        <v>0.4589334699642595</v>
+      </c>
+      <c r="Q20">
+        <v>1625.717820577017</v>
+      </c>
+      <c r="R20">
+        <v>9754.3069234621</v>
+      </c>
+      <c r="S20">
+        <v>0.1969646282358486</v>
+      </c>
+      <c r="T20">
+        <v>0.1549256128827779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.7805215</v>
+      </c>
+      <c r="H21">
+        <v>63.561043</v>
+      </c>
+      <c r="I21">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J21">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.164205</v>
+      </c>
+      <c r="N21">
+        <v>6.32841</v>
+      </c>
+      <c r="O21">
+        <v>0.02812159689843977</v>
+      </c>
+      <c r="P21">
+        <v>0.01892513291868944</v>
+      </c>
+      <c r="Q21">
+        <v>100.5600850329075</v>
+      </c>
+      <c r="R21">
+        <v>402.24034013163</v>
+      </c>
+      <c r="S21">
+        <v>0.01218340570126858</v>
+      </c>
+      <c r="T21">
+        <v>0.006388699034185354</v>
       </c>
     </row>
   </sheetData>
